--- a/biology/Botanique/Jardin_d'Orsay/Jardin_d'Orsay.xlsx
+++ b/biology/Botanique/Jardin_d'Orsay/Jardin_d'Orsay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_d%27Orsay</t>
+          <t>Jardin_d'Orsay</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin d'Orsay ou JDO est un jardin public de la ville de Limoges, d'une superficie d'environ 1,8 hectare.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_d%27Orsay</t>
+          <t>Jardin_d'Orsay</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amphithéâtre gallo-romain est en partie enfoui au XVIIIe siècle par l'intendant Boucher d'Orsay, qui aménage une promenade publique et donne son nom au site. Une partie des fondations de l'amphithéâtre demeure visible près de l'entrée sud du parc. 
-L'accès principal se fait jusqu'en 1846 par la place d'Aine, date de construction du palais de justice. Un temps promise au nivellement à hauteur de la place du Champ de Foire (actuelle place Winston Churchill), la promenade est réaménagée à la fin du XIXe siècle avec l'ajout de l'escalier monumental et du kiosque à musique autrefois installé au Champ de Juillet. Le jardin est à nouveau réaménagé en 1966 par la municipalité[1].
+L'accès principal se fait jusqu'en 1846 par la place d'Aine, date de construction du palais de justice. Un temps promise au nivellement à hauteur de la place du Champ de Foire (actuelle place Winston Churchill), la promenade est réaménagée à la fin du XIXe siècle avec l'ajout de l'escalier monumental et du kiosque à musique autrefois installé au Champ de Juillet. Le jardin est à nouveau réaménagé en 1966 par la municipalité.
 En 2018, la municipalité engage de grands travaux de réaménagement du jardin, comprenant notamment l'abattage de plusieurs arbres, la réfection des escaliers monumentaux, la mise en accessibilité du parc et la création d'un skate-park
-[2],[3].
+,.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_d%27Orsay</t>
+          <t>Jardin_d'Orsay</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Aménagement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une stèle dans le parc rend hommage à Camille Vardelle, tué lors des évènements ouvriers de 1905. Henri Coutheillas est le sculpteur qui a réalisé Le chêne et le roseau situé dans le jardin.
 Très fréquenté par les lycéens des établissements proches (lycées Turgot, Limosin et Valadon), il est surnommé le JDO par la jeunesse limougeaude. De nombreux événements culturels y sont organisés en période estivale : spectacles de musique folklorique, festival de musiques urbaines, notamment.
